--- a/data/trans_camb/LAWTONB_2R2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/LAWTONB_2R2-Edad-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>2.026043707755651</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.2037456889536826</v>
+        <v>0.2037456889536798</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>-0.1643950961354362</v>
@@ -664,7 +664,7 @@
         <v>-1.886282135742143</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-1.071673966542896</v>
+        <v>-1.071673966542894</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-7.052733988993615</v>
+        <v>-7.030732531328066</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-11.84174785368524</v>
+        <v>-12.37709384382731</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-7.377818649325631</v>
+        <v>-7.275724471079277</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-5.74783659839555</v>
+        <v>-5.242370830990938</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-3.949666495274311</v>
+        <v>-3.848348638182603</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-4.461390309488828</v>
+        <v>-4.776399881916451</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-4.733314176508649</v>
+        <v>-4.542189704500019</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-6.083963507465993</v>
+        <v>-6.455644537618249</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-4.567077808662829</v>
+        <v>-4.801625103339288</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.810253691782059</v>
+        <v>5.180478535273083</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-0.9603816806684863</v>
+        <v>-1.247405890733961</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.760318528057542</v>
+        <v>2.807848782092772</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6.806950778178207</v>
+        <v>6.685740061602909</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>8.168128003175152</v>
+        <v>8.096857915001427</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>5.050619432729868</v>
+        <v>5.099502219250572</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>3.702359732416513</v>
+        <v>4.20432427444833</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.122121572010732</v>
+        <v>2.26477651682742</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>2.313629325451237</v>
+        <v>2.531750812897556</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>0.09999659422466556</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01005598986109509</v>
+        <v>0.01005598986109495</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>-0.008937418880422165</v>
@@ -769,7 +769,7 @@
         <v>-0.1025486402580772</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.0582620733062901</v>
+        <v>-0.05826207330628995</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.3603949471217743</v>
+        <v>-0.3818541426644744</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.6086225443594493</v>
+        <v>-0.6126918121169657</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.3830974720229549</v>
+        <v>-0.3793086017687787</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.2457652385570138</v>
+        <v>-0.2351970191489529</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1646511118467337</v>
+        <v>-0.1672160666002482</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1890666093178031</v>
+        <v>-0.1978154552188227</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.2325015291475802</v>
+        <v>-0.2212802797854915</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2968548897297762</v>
+        <v>-0.3048581601252904</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.2182500346940567</v>
+        <v>-0.2294868965411483</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.3760105031842623</v>
+        <v>0.3885285262512294</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.07094695861107718</v>
+        <v>-0.06219217493221681</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.2238392104464366</v>
+        <v>0.2244492576339825</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.3859246918610266</v>
+        <v>0.3851827443893201</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.4583284676984218</v>
+        <v>0.4719778708720239</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3086880271076363</v>
+        <v>0.2969928068925572</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2298073486429341</v>
+        <v>0.2606605388307573</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1304285014658884</v>
+        <v>0.1491173376671822</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.1473436732184079</v>
+        <v>0.1535306966507225</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-4.99732130881786</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-1.527325582937583</v>
+        <v>-1.527325582937594</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>5.621518470745496</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-8.546688372745571</v>
+        <v>-8.688675518432532</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-13.48872677224829</v>
+        <v>-13.47416437089965</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-9.047626238529594</v>
+        <v>-8.870481885851467</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.212081146389821</v>
+        <v>-1.753153973647987</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-8.461169055518521</v>
+        <v>-8.603108595326669</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>4.955139262817268</v>
+        <v>5.531230545839773</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-2.122286929777986</v>
+        <v>-2.27436876705978</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-8.220707135413805</v>
+        <v>-8.583173218047166</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>1.466051833328002</v>
+        <v>1.164527590177865</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>9.722723740782675</v>
+        <v>10.29794138047272</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.445343161582466</v>
+        <v>4.350219795074923</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.185512745940582</v>
+        <v>6.91357623660345</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>12.91973742114102</v>
+        <v>13.61365947996196</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>7.532404504384465</v>
+        <v>7.27053919242797</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>18.57010575932773</v>
+        <v>19.21797971215372</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>10.17897363595526</v>
+        <v>9.65207550871267</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>3.557912422518612</v>
+        <v>3.669971557723943</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>11.82772346281593</v>
+        <v>11.81090762765847</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.1236945821556113</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.03780463334700611</v>
+        <v>-0.03780463334700639</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.1149729716946174</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.1944039884000232</v>
+        <v>-0.192270668305134</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.3060781543573131</v>
+        <v>-0.2964961504059692</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.1966700376122547</v>
+        <v>-0.1935521300380884</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.04268252839256348</v>
+        <v>-0.03412628996400496</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1598180853302667</v>
+        <v>-0.1605932114284468</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.09121547987148811</v>
+        <v>0.1037550384011485</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.04449055681791542</v>
+        <v>-0.05078914008242028</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1681783183370568</v>
+        <v>-0.1746644324744616</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.02874546475388156</v>
+        <v>0.02395041366080389</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.2671189949532211</v>
+        <v>0.2857283218627066</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.09706714337546453</v>
+        <v>0.1232743600665293</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.1757584664127627</v>
+        <v>0.2002463812373186</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.2837921286515461</v>
+        <v>0.2969156255579047</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1699136889240815</v>
+        <v>0.1625444648288637</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4272073789221461</v>
+        <v>0.4394527858942217</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2432896647802914</v>
+        <v>0.223104425067821</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.08620000532925828</v>
+        <v>0.08777657915977581</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.2805187180720586</v>
+        <v>0.2880195724432408</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>1.285424261663115</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>6.890702822026013</v>
+        <v>6.890702822026007</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>2.569021275745348</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-4.888023284829138</v>
+        <v>-5.027985356159125</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-9.676586742120055</v>
+        <v>-10.62011133590047</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-6.25166426746427</v>
+        <v>-6.252492655866912</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.217007751906591</v>
+        <v>-1.056245574979677</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-4.092213274045007</v>
+        <v>-4.016342821685807</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>2.070150656407507</v>
+        <v>2.578274325281783</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-1.352649485531888</v>
+        <v>-1.703322167978702</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-5.106259467198152</v>
+        <v>-5.408151616032201</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-0.4068757151987517</v>
+        <v>-0.2053936399531184</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.255063095164624</v>
+        <v>5.950139821116662</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-0.21449035049998</v>
+        <v>-0.8616816328503983</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.095438420068934</v>
+        <v>2.97417087958081</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>9.459915675555683</v>
+        <v>9.611444746030154</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>6.195133608250584</v>
+        <v>6.80279042754355</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>11.04677448932191</v>
+        <v>11.29921498750597</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>6.578307935393419</v>
+        <v>6.014705630446861</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>2.069200631111949</v>
+        <v>1.858858179011572</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>6.085672043565418</v>
+        <v>6.346647059788729</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>0.03738135329930654</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2003881553763536</v>
+        <v>0.2003881553763535</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.08301532819676251</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.1732204215856527</v>
+        <v>-0.1723589297763713</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.3449499053071786</v>
+        <v>-0.3560137301558604</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.2130468129234273</v>
+        <v>-0.2126988115614127</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.03329347970397989</v>
+        <v>-0.031344102560147</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1098584635036107</v>
+        <v>-0.1116664033575932</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.05454685550578538</v>
+        <v>0.06507959120462692</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.04044381845024991</v>
+        <v>-0.04955043480532188</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.1579761656932077</v>
+        <v>-0.1663052864676453</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.01096589079023518</v>
+        <v>-0.006262693387313984</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.2642670714947086</v>
+        <v>0.2613722335583891</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.009023532933303623</v>
+        <v>-0.03526579217083162</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.1346564888408198</v>
+        <v>0.1305965261317991</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.2987376594113831</v>
+        <v>0.3004051235898558</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1924784284946686</v>
+        <v>0.2161902755902146</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3544134034301409</v>
+        <v>0.3619134459296732</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.225797220116155</v>
+        <v>0.2082251341498101</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.07020636087657749</v>
+        <v>0.06457438043091997</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.2134417053976927</v>
+        <v>0.2242434882485292</v>
       </c>
     </row>
     <row r="22">
